--- a/GATEWAY/A1#111APINFORMATICASRLXX/APINFORMATICA/ENERGYOMEGAPLUS-LIS/3.0.0000/report-checklist.xlsx
+++ b/GATEWAY/A1#111APINFORMATICASRLXX/APINFORMATICA/ENERGYOMEGAPLUS-LIS/3.0.0000/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myr\Omega\Fse2\Accreditamento\5-Pdf e Xml da Inviare\3-Preparati da Ugo\LIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myr\Omega\Fse2\Accreditamento\5-Pdf e Xml da Inviare\COPIA ENERGYOMEGAPLUS-LIS\3.0.0000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857583E3-4DBB-4A9A-A011-359092E42A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F916C7B-54EC-4832-A39F-C905066AAE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,15 +509,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.0cbe547b09c658d1aaac96a0e8e584b7ffc5d003987d510af2d3d31148fed830.f2235bc8fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>09:33</t>
-  </si>
-  <si>
-    <t>79cf2116d47b42ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.f799db888f705c432f32622d943a9ffb8f0cf65fc5a1fde26d056ac2700e4997.f928b96bec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>09.34</t>
   </si>
   <si>
@@ -574,6 +565,15 @@
   <si>
     <t>subject_application_id: ENERGYOMEGAPLUS-LIS</t>
   </si>
+  <si>
+    <t>5cabe59ffa91ef91</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.f799db888f705c432f32622d943a9ffb8f0cf65fc5a1fde26d056ac2700e4997.2541c801e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16:02</t>
+  </si>
 </sst>
 </file>
 
@@ -582,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -637,6 +637,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -858,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,6 +1011,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1321,7 +1349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T604"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1329,7 +1359,7 @@
     <col min="2" max="2" width="27.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="30" customWidth="1"/>
@@ -1376,7 +1406,7 @@
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="4"/>
@@ -1402,7 +1432,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="4"/>
@@ -1426,7 +1456,7 @@
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="10"/>
@@ -1450,7 +1480,7 @@
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="4"/>
@@ -1774,47 +1804,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+    <row r="14" spans="1:20" s="65" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
         <v>5</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="34">
-        <v>45211</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="37" t="s">
+      <c r="F14" s="60">
+        <v>45223</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="37" t="s">
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="62" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1876,13 +1906,13 @@
         <v>45211</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>26</v>
@@ -2048,13 +2078,13 @@
         <v>45211</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J20" s="37" t="s">
         <v>26</v>
@@ -2101,13 +2131,13 @@
         <v>45211</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J21" s="37" t="s">
         <v>26</v>
@@ -2345,13 +2375,13 @@
         <v>45211</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J27" s="37" t="s">
         <v>26</v>
@@ -2399,13 +2429,13 @@
         <v>45211</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J28" s="37" t="s">
         <v>26</v>
